--- a/Documentos de Entrega/Pré Apresentação/Controle.xlsx
+++ b/Documentos de Entrega/Pré Apresentação/Controle.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Formulário de solicitação de nomeação de banca examinadora (ver anexo abaixo), assinado pelo aluno e pelo orientador;</t>
   </si>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -189,7 +189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -366,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -377,7 +377,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,8 +405,12 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -420,17 +424,29 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
